--- a/test/simpledms/static/reestry/архивы_реестр.xlsx
+++ b/test/simpledms/static/reestry/архивы_реестр.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,76 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14_05_2021</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44330</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test/simpledms/static/reestry/архивы_реестр.xlsx
+++ b/test/simpledms/static/reestry/архивы_реестр.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,1158 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C33" t="n">
+        <v>27</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C34" t="n">
+        <v>27</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/13</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/14</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/16</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/18</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/19</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/24</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C48" t="n">
+        <v>27</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C49" t="n">
+        <v>27</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C50" t="n">
+        <v>27</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/28</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/29</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/32</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/33</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/34</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/35</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/36</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/37</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/38</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/39</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/41</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/42</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/43</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/44</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/45</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/46</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/47</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/48</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/49</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/51</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/53</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/55</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/57</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/59</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C82" t="n">
+        <v>27</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C83" t="n">
+        <v>27</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/61</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C84" t="n">
+        <v>27</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/62</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C85" t="n">
+        <v>27</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/63</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C86" t="n">
+        <v>27</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/64</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C87" t="n">
+        <v>27</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/65</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C88" t="n">
+        <v>27</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/66</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C89" t="n">
+        <v>27</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/67</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>15_05_2021</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C90" t="n">
+        <v>27</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/api/zip/68</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test/simpledms/static/reestry/архивы_реестр.xlsx
+++ b/test/simpledms/static/reestry/архивы_реестр.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,24 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>16_05_2021</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44332</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/download/79</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
